--- a/xlsx/自组织_intext.xlsx
+++ b/xlsx/自组织_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>系統</t>
+    <t>系统</t>
   </si>
   <si>
     <t>政策_政策_管理_自组织</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E9%9B%9C%E6%80%A7</t>
   </si>
   <si>
-    <t>複雜性</t>
+    <t>复杂性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%BD%A2</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E5%BA%A6%E5%88%86%E9%9A%94%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>六度分隔理論</t>
+    <t>六度分隔理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E8%87%AA%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>細胞自動機</t>
+    <t>细胞自动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱力學</t>
+    <t>热力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B9%B3%E8%A1%A1%E6%85%8B%E7%86%B1%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>非平衡態熱力學</t>
+    <t>非平衡态热力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計力學</t>
+    <t>统计力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>相變</t>
+    <t>相变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%97%E6%95%A3%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>耗散結構</t>
+    <t>耗散结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%8D%E6%B5%81</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統科學</t>
+    <t>系统科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E8%AE%BA</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%9F%E7%B3%BB%E7%B5%B1%E8%AB%96</t>
   </si>
   <si>
-    <t>自生系統論</t>
+    <t>自生系统论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E9%9B%9C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>複雜系統</t>
+    <t>复杂系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E7%94%9F%E5%91%BD</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>電腦科學</t>
+    <t>电脑科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BD%93%E6%99%BA%E8%83%BD</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%B8%BA%E8%80%8C%E6%B2%BB</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
